--- a/seminar/seminar8/База данных для написания программы.xlsx
+++ b/seminar/seminar8/База данных для написания программы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>ученики</t>
   </si>
@@ -48,9 +48,6 @@
     <t>название</t>
   </si>
   <si>
-    <t>количество учеников</t>
-  </si>
-  <si>
     <t>классы</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>log</t>
+  </si>
+  <si>
+    <t>id учеников</t>
   </si>
 </sst>
 </file>
@@ -295,9 +295,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -310,6 +307,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -604,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N25"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="C16:M17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -616,291 +616,266 @@
     <col min="7" max="7" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1">
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1">
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1">
-      <c r="G9" s="6" t="s">
+      <c r="I10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1">
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1">
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1">
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1">
+      <c r="G15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1">
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="16" spans="2:12">
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1">
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1">
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1">
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1">
-      <c r="G15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="6:9" ht="15" thickBot="1">
       <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="6:9" ht="15" thickBot="1">
-      <c r="G18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="13" t="s">
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="G19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9">
-      <c r="G19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="6:9">
       <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="G21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="6:9">
-      <c r="G21" s="4" t="s">
+    <row r="22" spans="6:9">
+      <c r="G22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="6:9">
-      <c r="G22" s="4" t="s">
+    <row r="23" spans="6:9">
+      <c r="G23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="6:9">
-      <c r="G23" s="4" t="s">
+    <row r="24" spans="6:9">
+      <c r="G24" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="6:9">
-      <c r="G24" s="4" t="s">
+    <row r="25" spans="6:9" ht="15" thickBot="1">
+      <c r="G25" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9" ht="15" thickBot="1">
-      <c r="G25" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
